--- a/pics/ViT_without_FFT.xlsx
+++ b/pics/ViT_without_FFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dreamer-Programming\ViT\timm\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3544B-C5FE-429D-8375-4B5037C2041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0AE29B-FED5-4D40-8144-FDF7113F3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ViT</t>
+    <t>ViT_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNN1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViT_time</t>
+    <t>ViT_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +210,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -225,11 +221,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -356,11 +352,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -487,11 +483,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -618,11 +614,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -749,11 +745,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -880,11 +876,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1032,96 +1028,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.4930922</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3771222000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1072152000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.40557199999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.7329199999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4787199999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4782800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6777799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3217200000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3208199999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1003000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1553999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4422000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2943999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.0333999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.5360000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2727999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4066000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.1653999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.6447999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4625999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.1653999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1949999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0343999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.6444000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.1898000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.3480000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.504799999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1333999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9627999999999998E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1163,96 +1069,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.4019330000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3326100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94217899999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.176732</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1549999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5881999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7569000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2196E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0545000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0796999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.7260000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2140000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.2950000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8919999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8120000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0740000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5909999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.1079999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7920000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4449999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4580000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.1520000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.6830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.6830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3180000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.535E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.4840000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.875E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9989999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.6120000000000002E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1294,96 +1110,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.458248</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4243440000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.250443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59096800000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0477999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9218000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.804E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3258000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9376999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2262E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0852000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.9600000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.561E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0369999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.3590000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.6519999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4710000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3930000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9309999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8050000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8009999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8430000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0530000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.9119999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.728E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.2910000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.261E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.2269999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.5980000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1425,96 +1151,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.642172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3732</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2814129999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58310499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10986899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1376E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7973000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5952999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3856E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2465E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0862E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0052999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8629999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.9640000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9680000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9690000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.293E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.8650000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8630000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0959999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.5779999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5230000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4270000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4010000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.9659999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.643E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5599999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.3890000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.1580000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8549999999999999E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1556,96 +1192,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.4837849999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.361378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78152600000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15812000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8762000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0647999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9871999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0323000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4411999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3403999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2378E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.3759999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9720000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4440000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.5329999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4559999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.1919999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2839999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.9870000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9810000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2579999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.3760000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.46E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.4789999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7749999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.127E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.4847999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.3210000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.2049999999999999E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1687,96 +1233,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.4793229999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3940790000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2805150000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51893500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1254999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5551999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9282000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7377E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4015E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9979999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.7870000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2819999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.1210000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6109999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3816999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.8220000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6360000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.3049999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7920000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7660000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2139999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.9750000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.5620000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.5560000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.846E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.2680000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.2780000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.1510000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9619999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.5439999999999998E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1951,6 +1407,10 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
@@ -2168,24 +1628,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.49799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.884200000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.916800000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.965999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.933400000000006</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2227,24 +1669,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2286,24 +1710,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2345,24 +1751,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2404,24 +1792,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.75</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2463,24 +1833,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>98.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.917000000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2500,7 +1852,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2511,11 +1863,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2570,11 +1922,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2629,11 +1981,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2685,11 +2037,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2744,11 +2096,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2803,11 +2155,11 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4228,13 +3580,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2886</xdr:rowOff>
+      <xdr:rowOff>53686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>630876</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>35875</xdr:rowOff>
+      <xdr:rowOff>86675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4268,14 +3620,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>48186</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157630</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4568,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4609,25 +3961,6 @@
       <c r="L1" s="4">
         <v>76.2</v>
       </c>
-      <c r="N1" s="1">
-        <v>1.4019330000000001</v>
-      </c>
-      <c r="O1" s="1">
-        <v>1.458248</v>
-      </c>
-      <c r="P1" s="1">
-        <v>1.642172</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>1.4837849999999999</v>
-      </c>
-      <c r="R1" s="1">
-        <v>1.4793229999999999</v>
-      </c>
-      <c r="S1" s="1">
-        <f>AVERAGE(N1:R1)</f>
-        <v>1.4930922</v>
-      </c>
       <c r="U1" s="4">
         <v>99.75</v>
       </c>
@@ -4679,25 +4012,6 @@
       <c r="L2" s="4">
         <v>74.8</v>
       </c>
-      <c r="N2" s="1">
-        <v>1.3326100000000001</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.4243440000000001</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1.3732</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1.361378</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1.3940790000000001</v>
-      </c>
-      <c r="S2" s="1">
-        <f t="shared" ref="S2:S30" si="1">AVERAGE(N2:R2)</f>
-        <v>1.3771222000000001</v>
-      </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4719,25 +4033,6 @@
         <f t="shared" si="0"/>
         <v>0.76934599999999997</v>
       </c>
-      <c r="N3" s="1">
-        <v>0.94217899999999999</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1.250443</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1.2814129999999999</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.78152600000000005</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1.2805150000000001</v>
-      </c>
-      <c r="S3" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1072152000000002</v>
-      </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -4759,25 +4054,6 @@
         <f t="shared" si="0"/>
         <v>0.71565079999999992</v>
       </c>
-      <c r="N4" s="1">
-        <v>0.176732</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.59096800000000005</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.58310499999999998</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.15812000000000001</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.51893500000000004</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.40557199999999999</v>
-      </c>
     </row>
     <row r="5" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -4799,25 +4075,7 @@
         <f t="shared" si="0"/>
         <v>0.73523559999999999</v>
       </c>
-      <c r="N5" s="2">
-        <v>5.1549999999999999E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.13521</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.10986899999999999</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>5.8762000000000002E-2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>8.1254999999999994E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.7329199999999996E-2</v>
-      </c>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -4854,25 +4112,7 @@
       <c r="L6" s="3">
         <v>95.1</v>
       </c>
-      <c r="N6" s="3">
-        <v>3.5881999999999997E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>7.0477999999999999E-2</v>
-      </c>
-      <c r="P6" s="3">
-        <v>6.1376E-2</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>4.0647999999999997E-2</v>
-      </c>
-      <c r="R6" s="3">
-        <v>6.5551999999999999E-2</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4787199999999994E-2</v>
-      </c>
+      <c r="S6" s="1"/>
       <c r="U6" s="3">
         <v>99.917000000000002</v>
       </c>
@@ -4924,25 +4164,6 @@
       <c r="L7" s="4">
         <v>94.2</v>
       </c>
-      <c r="N7" s="1">
-        <v>1.7569000000000001E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2.9218000000000001E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2.7973000000000001E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2.9871999999999999E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1.9282000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4782800000000001E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -4964,25 +4185,6 @@
         <f t="shared" si="0"/>
         <v>0.62236500000000006</v>
       </c>
-      <c r="N8" s="1">
-        <v>1.2196E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1.804E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.5952999999999998E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>2.0323000000000001E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1.7377E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6777799999999999E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5004,25 +4206,6 @@
         <f t="shared" si="0"/>
         <v>0.58751259999999994</v>
       </c>
-      <c r="N9" s="1">
-        <v>1.0545000000000001E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.3258000000000001E-2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.3856E-2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1.4411999999999999E-2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1.4015E-2</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3217200000000002E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -5044,25 +4227,7 @@
         <f t="shared" si="0"/>
         <v>0.59317120000000001</v>
       </c>
-      <c r="N10" s="2">
-        <v>1.0796999999999999E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1.9376999999999998E-2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1.2465E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.3403999999999999E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <v>9.9979999999999999E-3</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3208199999999998E-2</v>
-      </c>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -5099,25 +4264,7 @@
       <c r="L11">
         <v>99.8</v>
       </c>
-      <c r="N11">
-        <v>9.7260000000000003E-3</v>
-      </c>
-      <c r="O11">
-        <v>1.2262E-2</v>
-      </c>
-      <c r="P11">
-        <v>1.0862E-2</v>
-      </c>
-      <c r="Q11">
-        <v>1.2378E-2</v>
-      </c>
-      <c r="R11">
-        <v>9.7870000000000006E-3</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1003000000000002E-2</v>
-      </c>
+      <c r="S11" s="1"/>
       <c r="U11">
         <v>99.917000000000002</v>
       </c>
@@ -5169,25 +4316,7 @@
       <c r="L12">
         <v>98.9</v>
       </c>
-      <c r="N12">
-        <v>8.2140000000000008E-3</v>
-      </c>
-      <c r="O12">
-        <v>1.0852000000000001E-2</v>
-      </c>
-      <c r="P12">
-        <v>1.0052999999999999E-2</v>
-      </c>
-      <c r="Q12">
-        <v>8.3759999999999998E-3</v>
-      </c>
-      <c r="R12">
-        <v>8.2819999999999994E-3</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1553999999999993E-3</v>
-      </c>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -5209,25 +4338,7 @@
         <f t="shared" si="0"/>
         <v>0.50068760000000001</v>
       </c>
-      <c r="N13">
-        <v>7.2950000000000003E-3</v>
-      </c>
-      <c r="O13">
-        <v>7.9600000000000001E-3</v>
-      </c>
-      <c r="P13">
-        <v>8.8629999999999994E-3</v>
-      </c>
-      <c r="Q13">
-        <v>8.9720000000000008E-3</v>
-      </c>
-      <c r="R13">
-        <v>9.1210000000000006E-3</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4422000000000004E-3</v>
-      </c>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -5249,25 +4360,7 @@
         <f t="shared" si="0"/>
         <v>0.54829660000000002</v>
       </c>
-      <c r="N14">
-        <v>7.8919999999999997E-3</v>
-      </c>
-      <c r="O14">
-        <v>7.561E-3</v>
-      </c>
-      <c r="P14">
-        <v>7.9640000000000006E-3</v>
-      </c>
-      <c r="Q14">
-        <v>6.4440000000000001E-3</v>
-      </c>
-      <c r="R14">
-        <v>6.6109999999999997E-3</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="1"/>
-        <v>7.2943999999999995E-3</v>
-      </c>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -5289,25 +4382,7 @@
         <f t="shared" si="0"/>
         <v>0.57583080000000009</v>
       </c>
-      <c r="N15">
-        <v>6.8120000000000003E-3</v>
-      </c>
-      <c r="O15">
-        <v>7.0369999999999999E-3</v>
-      </c>
-      <c r="P15">
-        <v>6.9680000000000002E-3</v>
-      </c>
-      <c r="Q15">
-        <v>5.5329999999999997E-3</v>
-      </c>
-      <c r="R15">
-        <v>1.3816999999999999E-2</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0333999999999996E-3</v>
-      </c>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -5344,25 +4419,7 @@
       <c r="L16" s="3">
         <v>100</v>
       </c>
-      <c r="N16" s="3">
-        <v>6.0740000000000004E-3</v>
-      </c>
-      <c r="O16" s="3">
-        <v>6.3590000000000001E-3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>6.9690000000000004E-3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>5.4559999999999999E-3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>7.8220000000000008E-3</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5360000000000001E-3</v>
-      </c>
+      <c r="S16" s="1"/>
       <c r="U16" s="3">
         <v>100</v>
       </c>
@@ -5414,25 +4471,6 @@
       <c r="L17" s="4">
         <v>99.7</v>
       </c>
-      <c r="N17" s="1">
-        <v>6.5909999999999996E-3</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6.6519999999999999E-3</v>
-      </c>
-      <c r="P17" s="1">
-        <v>6.293E-3</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>6.1919999999999996E-3</v>
-      </c>
-      <c r="R17" s="1">
-        <v>5.6360000000000004E-3</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2727999999999994E-3</v>
-      </c>
     </row>
     <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -5454,25 +4492,6 @@
         <f t="shared" si="0"/>
         <v>0.46010239999999997</v>
       </c>
-      <c r="N18" s="1">
-        <v>5.1079999999999997E-3</v>
-      </c>
-      <c r="O18" s="1">
-        <v>5.4710000000000002E-3</v>
-      </c>
-      <c r="P18" s="1">
-        <v>5.8650000000000004E-3</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>4.2839999999999996E-3</v>
-      </c>
-      <c r="R18" s="1">
-        <v>6.3049999999999998E-3</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4066000000000001E-3</v>
-      </c>
     </row>
     <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -5494,25 +4513,6 @@
         <f t="shared" si="0"/>
         <v>0.49886059999999999</v>
       </c>
-      <c r="N19" s="1">
-        <v>4.7920000000000003E-3</v>
-      </c>
-      <c r="O19" s="1">
-        <v>5.3930000000000002E-3</v>
-      </c>
-      <c r="P19" s="1">
-        <v>5.8630000000000002E-3</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>4.9870000000000001E-3</v>
-      </c>
-      <c r="R19" s="1">
-        <v>4.7920000000000003E-3</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1653999999999997E-3</v>
-      </c>
     </row>
     <row r="20" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -5534,25 +4534,7 @@
         <f t="shared" si="0"/>
         <v>0.50596360000000007</v>
       </c>
-      <c r="N20" s="2">
-        <v>1.4449999999999999E-2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>4.9309999999999996E-3</v>
-      </c>
-      <c r="P20" s="2">
-        <v>5.0959999999999998E-3</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>3.9810000000000002E-3</v>
-      </c>
-      <c r="R20" s="2">
-        <v>4.7660000000000003E-3</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6447999999999993E-3</v>
-      </c>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -5589,25 +4571,7 @@
       <c r="L21">
         <v>100</v>
       </c>
-      <c r="N21">
-        <v>4.4580000000000002E-3</v>
-      </c>
-      <c r="O21">
-        <v>4.8050000000000002E-3</v>
-      </c>
-      <c r="P21">
-        <v>4.5779999999999996E-3</v>
-      </c>
-      <c r="Q21">
-        <v>4.2579999999999996E-3</v>
-      </c>
-      <c r="R21">
-        <v>4.2139999999999999E-3</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4625999999999989E-3</v>
-      </c>
+      <c r="S21" s="1"/>
       <c r="U21">
         <v>100</v>
       </c>
@@ -5659,25 +4623,7 @@
       <c r="L22">
         <v>99.6</v>
       </c>
-      <c r="N22">
-        <v>4.1520000000000003E-3</v>
-      </c>
-      <c r="O22">
-        <v>4.8009999999999997E-3</v>
-      </c>
-      <c r="P22">
-        <v>4.5230000000000001E-3</v>
-      </c>
-      <c r="Q22">
-        <v>3.3760000000000001E-3</v>
-      </c>
-      <c r="R22">
-        <v>3.9750000000000002E-3</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1653999999999997E-3</v>
-      </c>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -5699,25 +4645,7 @@
         <f t="shared" si="0"/>
         <v>0.38105359999999999</v>
       </c>
-      <c r="N23">
-        <v>3.6830000000000001E-3</v>
-      </c>
-      <c r="O23">
-        <v>4.8430000000000001E-3</v>
-      </c>
-      <c r="P23">
-        <v>4.4270000000000004E-3</v>
-      </c>
-      <c r="Q23">
-        <v>3.46E-3</v>
-      </c>
-      <c r="R23">
-        <v>4.5620000000000001E-3</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1949999999999999E-3</v>
-      </c>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -5739,25 +4667,7 @@
         <f t="shared" si="0"/>
         <v>0.38141159999999996</v>
       </c>
-      <c r="N24">
-        <v>3.6830000000000001E-3</v>
-      </c>
-      <c r="O24">
-        <v>4.0530000000000002E-3</v>
-      </c>
-      <c r="P24">
-        <v>4.4010000000000004E-3</v>
-      </c>
-      <c r="Q24">
-        <v>3.4789999999999999E-3</v>
-      </c>
-      <c r="R24">
-        <v>4.5560000000000002E-3</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0343999999999996E-3</v>
-      </c>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -5779,25 +4689,7 @@
         <f t="shared" si="0"/>
         <v>0.40314700000000003</v>
       </c>
-      <c r="N25">
-        <v>3.3180000000000002E-3</v>
-      </c>
-      <c r="O25">
-        <v>3.9119999999999997E-3</v>
-      </c>
-      <c r="P25">
-        <v>3.9659999999999999E-3</v>
-      </c>
-      <c r="Q25">
-        <v>3.1800000000000001E-3</v>
-      </c>
-      <c r="R25">
-        <v>3.846E-3</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6444000000000003E-3</v>
-      </c>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -5834,25 +4726,7 @@
       <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>4.535E-3</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3.728E-3</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3.643E-3</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>4.7749999999999997E-3</v>
-      </c>
-      <c r="R26" s="3">
-        <v>4.2680000000000001E-3</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1898000000000005E-3</v>
-      </c>
+      <c r="S26" s="1"/>
       <c r="U26" s="3">
         <v>100</v>
       </c>
@@ -5904,25 +4778,6 @@
       <c r="L27" s="4">
         <v>99.8</v>
       </c>
-      <c r="N27" s="1">
-        <v>3.4840000000000001E-3</v>
-      </c>
-      <c r="O27" s="1">
-        <v>3.2910000000000001E-3</v>
-      </c>
-      <c r="P27" s="1">
-        <v>3.5599999999999998E-3</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>3.127E-3</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3.2780000000000001E-3</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3480000000000003E-3</v>
-      </c>
     </row>
     <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -5944,25 +4799,6 @@
         <f t="shared" si="0"/>
         <v>0.32915620000000001</v>
       </c>
-      <c r="N28" s="1">
-        <v>2.875E-3</v>
-      </c>
-      <c r="O28" s="1">
-        <v>3.261E-3</v>
-      </c>
-      <c r="P28" s="1">
-        <v>3.3890000000000001E-3</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>3.4847999999999997E-2</v>
-      </c>
-      <c r="R28" s="1">
-        <v>3.1510000000000002E-3</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="1"/>
-        <v>9.504799999999999E-3</v>
-      </c>
     </row>
     <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -5984,25 +4820,6 @@
         <f t="shared" si="0"/>
         <v>0.36372859999999996</v>
       </c>
-      <c r="N29" s="1">
-        <v>2.9989999999999999E-3</v>
-      </c>
-      <c r="O29" s="1">
-        <v>3.2269999999999998E-3</v>
-      </c>
-      <c r="P29" s="1">
-        <v>3.1580000000000002E-3</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>8.3210000000000003E-3</v>
-      </c>
-      <c r="R29" s="1">
-        <v>2.9619999999999998E-3</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1333999999999997E-3</v>
-      </c>
     </row>
     <row r="30" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -6024,38 +4841,17 @@
         <f t="shared" si="0"/>
         <v>0.36055179999999998</v>
       </c>
-      <c r="N30" s="2">
-        <v>2.6120000000000002E-3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>3.5980000000000001E-3</v>
-      </c>
-      <c r="P30" s="2">
-        <v>2.8549999999999999E-3</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>3.2049999999999999E-3</v>
-      </c>
-      <c r="R30" s="2">
-        <v>2.5439999999999998E-3</v>
-      </c>
-      <c r="S30" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9627999999999998E-3</v>
-      </c>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="N31" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6066,10 +4862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A6A0FB-BEAC-4015-8801-230DE0AC53DD}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6078,25 +4874,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
-        <v>99.75</v>
-      </c>
-      <c r="B1" s="4">
-        <v>99.83</v>
-      </c>
-      <c r="C1" s="4">
-        <v>99.83</v>
-      </c>
-      <c r="D1" s="4">
-        <v>99.33</v>
-      </c>
-      <c r="E1" s="4">
-        <v>98.75</v>
-      </c>
-      <c r="F1" s="1">
-        <f>AVERAGE(A1:E1)</f>
-        <v>99.49799999999999</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="H1">
         <v>60.8</v>
       </c>
@@ -6118,25 +4900,6 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="D2" s="1">
-        <v>99.67</v>
-      </c>
-      <c r="E2" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F6" si="0">AVERAGE(A2:E2)</f>
-        <v>99.884200000000007</v>
-      </c>
       <c r="H2">
         <v>63.9</v>
       </c>
@@ -6153,30 +4916,11 @@
         <v>69.400000000000006</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M6" si="1">AVERAGE(H2:L2)</f>
+        <f t="shared" ref="M2:M6" si="0">AVERAGE(H2:L2)</f>
         <v>68.059999999999988</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>99.75</v>
-      </c>
-      <c r="E3" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>99.916800000000009</v>
-      </c>
       <c r="H3">
         <v>71.599999999999994</v>
       </c>
@@ -6193,30 +4937,11 @@
         <v>74.7</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>72.7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>99.83</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>99.965999999999994</v>
-      </c>
       <c r="H4">
         <v>75.400000000000006</v>
       </c>
@@ -6233,30 +4958,11 @@
         <v>77.8</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76.16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99.58</v>
-      </c>
-      <c r="E5" s="1">
-        <v>99.75</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>99.866</v>
-      </c>
       <c r="H5">
         <v>77.8</v>
       </c>
@@ -6273,30 +4979,11 @@
         <v>82.5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79.059999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99.75</v>
-      </c>
-      <c r="E6" s="1">
-        <v>99.917000000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>99.933400000000006</v>
-      </c>
       <c r="H6">
         <v>80.400000000000006</v>
       </c>
@@ -6313,119 +5000,19 @@
         <v>83.4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81.02000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="B13" s="1">
-        <v>69.7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>71.3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>84.6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>98</v>
-      </c>
-      <c r="B14" s="1">
-        <v>97.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>93.9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>99.1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>99.9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>99.9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>100</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>100</v>
-      </c>
-      <c r="B17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>100</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pics/ViT_without_FFT.xlsx
+++ b/pics/ViT_without_FFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dreamer-Programming\ViT\timm\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0AE29B-FED5-4D40-8144-FDF7113F3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC8BBE-237D-444A-AA0C-77E566502607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2349,6 +2349,10 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
@@ -3920,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -4864,7 +4868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A6A0FB-BEAC-4015-8801-230DE0AC53DD}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
